--- a/data/Сортировка_кухонь.xlsx
+++ b/data/Сортировка_кухонь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Desktop\BMSTU\Магистратура\3 семестр\NLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aakomlev\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D9FD7-1789-444C-A93D-998998F1CCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0548D9DA-AFB9-4FE3-AAE2-1163341C7360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7322382-7128-4488-A4C7-901716CD37F2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{B7322382-7128-4488-A4C7-901716CD37F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
   <si>
     <t xml:space="preserve">Итальянская кухня  </t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Неклассифицируемое</t>
+  </si>
+  <si>
+    <t>Греческая кухня</t>
+  </si>
+  <si>
+    <t>Малайзийская кухня</t>
+  </si>
+  <si>
+    <t>Азербайджанская кухня</t>
   </si>
 </sst>
 </file>
@@ -398,18 +407,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -463,31 +466,31 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,9 +506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -543,7 +546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -649,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,34 +802,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F63313-6107-40B3-B1BD-4E91819CE8DA}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="30.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7890625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.68359375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="30.7890625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.7890625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.41796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.41796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5234375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="25.7890625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="22.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.3125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5234375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.89453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -870,986 +873,1087 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="F12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6" t="s">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6" t="s">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6" t="s">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6" t="s">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10" t="s">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B96" s="6"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="B98" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J7">
